--- a/results/Table_1.xlsx
+++ b/results/Table_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="79">
   <si>
     <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
   </si>

--- a/results/Table_1.xlsx
+++ b/results/Table_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="2397">
   <si>
     <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
   </si>
@@ -247,6 +247,6960 @@
   </si>
   <si>
     <t>(0.071)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Summary Statistics of Variables in Bonn City Hall Experiment, by Treatment Assignment</t>
+  </si>
+  <si>
+    <t>Means and Standard Errors</t>
+  </si>
+  <si>
+    <t>Full sample</t>
+  </si>
+  <si>
+    <t>Not paid, Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid, Private </t>
+  </si>
+  <si>
+    <t>Not paid, Public</t>
+  </si>
+  <si>
+    <t>Paid, Public</t>
+  </si>
+  <si>
+    <t>F-test p-value</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis p-value</t>
+  </si>
+  <si>
+    <t>Frequency of altruistic activity (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.037)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.078)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Importance of donating blood (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Perception of blood donors as altruists (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.065)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: DRK</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: DRK</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: Haema</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.023)</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: Haema</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Awareness of institutions: UKB</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Where would you go to donate: UKB</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent age</t>
+  </si>
+  <si>
+    <t>(0.480)</t>
+  </si>
+  <si>
+    <t>(0.827)</t>
+  </si>
+  <si>
+    <t>(1.034)</t>
+  </si>
+  <si>
+    <t>(0.966)</t>
+  </si>
+  <si>
+    <t>(1.075)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent gender</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent came in group</t>
+  </si>
+  <si>
+    <t>(0.026)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent migrant status</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Respondent years lived in Bonn</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.327)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Intensity of social image concern (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>(0.101)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
+  </si>
+  <si>
+    <t>Attention/ability to complete survey (5 point likert scale)</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(   .)</t>
   </si>
   <si>
     <t>N</t>
@@ -298,40 +7252,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>2277</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2278</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2279</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>2280</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>2281</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>2282</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>2284</v>
       </c>
       <c r="B6">
         <v>3.0586319218241038</v>
@@ -357,30 +7311,30 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>2285</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>2286</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>2287</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>2288</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>2289</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>2290</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>2291</v>
       </c>
       <c r="B8">
         <v>4.006514657980456</v>
@@ -406,30 +7360,30 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>2292</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>2293</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>2294</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>2295</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>2296</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>2297</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>2298</v>
       </c>
       <c r="B10">
         <v>4.1530944625407162</v>
@@ -455,30 +7409,30 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>2299</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>2300</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>2301</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>2302</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>2303</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>2304</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>2305</v>
       </c>
       <c r="B12">
         <v>0.85504885993485347</v>
@@ -504,30 +7458,30 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>2306</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>2307</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>2308</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>2309</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>2310</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>2311</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>2312</v>
       </c>
       <c r="B14">
         <v>0.41205211726384372</v>
@@ -553,30 +7507,30 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>2313</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>2314</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>2315</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>2316</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>2317</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>2318</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>2319</v>
       </c>
       <c r="B16">
         <v>0.1319218241042345</v>
@@ -602,30 +7556,30 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>2320</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>2321</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>2322</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>2323</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>2324</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>2325</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>2326</v>
       </c>
       <c r="B18">
         <v>0.029315960912052099</v>
@@ -651,30 +7605,30 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>2327</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>2328</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>2329</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>2330</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>2331</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>2332</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>2333</v>
       </c>
       <c r="B20">
         <v>0.7052117263843648</v>
@@ -700,30 +7654,30 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>2334</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>2335</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>2336</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>2337</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>2338</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>2339</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>2340</v>
       </c>
       <c r="B22">
         <v>0.55863192182410426</v>
@@ -749,30 +7703,30 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>2341</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>2342</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>2343</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>2344</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>2345</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>2346</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>2347</v>
       </c>
       <c r="B24">
         <v>34.415309446254071</v>
@@ -798,30 +7752,30 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>51</v>
+        <v>2348</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>2349</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>2350</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>2351</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>2352</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>2353</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>2354</v>
       </c>
       <c r="B26">
         <v>0.48859934853420189</v>
@@ -847,30 +7801,30 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>2355</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>2356</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>2357</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>2358</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>2359</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>2360</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>2361</v>
       </c>
       <c r="B28">
         <v>0.29967426710097722</v>
@@ -896,30 +7850,30 @@
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>2362</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>2363</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>2364</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>2365</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>2366</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>2367</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>2368</v>
       </c>
       <c r="B30">
         <v>0.1302931596091205</v>
@@ -945,30 +7899,30 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>2369</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>2370</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>2371</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>2372</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>2373</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>2374</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>2375</v>
       </c>
       <c r="B32">
         <v>5.6661237785016283</v>
@@ -994,30 +7948,30 @@
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>66</v>
+        <v>2376</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>2377</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>2378</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>2379</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>2380</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>2381</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>2382</v>
       </c>
       <c r="B34">
         <v>3.4381107491856682</v>
@@ -1043,30 +7997,30 @@
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>2383</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>2384</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>2385</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>2386</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>2387</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>2388</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>2389</v>
       </c>
       <c r="B36">
         <v>4.2029702970297027</v>
@@ -1092,30 +8046,30 @@
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>2390</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>2391</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>2392</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>2393</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>2394</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>2395</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>2396</v>
       </c>
       <c r="B39">
         <v>614</v>
